--- a/数据整理/stocks/A股/上证主板/600588-用友网络.xlsx
+++ b/数据整理/stocks/A股/上证主板/600588-用友网络.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7100,7 +7101,6 @@
           <t>汇添富民营活力混合型证券投资基金 O</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
           <t>85.86</t>
@@ -7132,7 +7132,6 @@
           <t>西部利得景程灵活配置混合C</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
           <t>80.81</t>
@@ -7148,6 +7147,2150 @@
       </c>
       <c r="H79" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>171.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.9842</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.1308</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>105.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1240</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0427</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5538</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3370</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0311</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9975</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>52.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8314</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7910</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7504</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7182</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7161</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7145</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5566</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4749</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3609</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3503</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3325</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3134</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2620</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>68.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2467</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>67.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2327</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2302</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2253</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2253</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2134</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000589</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>光大保德信银发商机主题混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600588-用友网络.xlsx
+++ b/数据整理/stocks/A股/上证主板/600588-用友网络.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9296,4 +9297,2906 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.9402</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0256</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6501</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9268</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8529</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7269</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6642</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4899</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0262</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9940</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9742</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9109</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7635</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6802</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4971</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4787</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4297</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4032</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>69.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3645</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3482</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2492</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2245</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2236</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2235</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2205</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2140</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>74.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>65.23</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.16</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000589</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>光大保德信银发商机主题混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.88</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519937</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长信先锐混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>49.62</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>73.22</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008918</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长信先锐混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600588-用友网络.xlsx
+++ b/数据整理/stocks/A股/上证主板/600588-用友网络.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12199,4 +12200,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>75</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>78</v>
+      </c>
+      <c r="D4" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>96</v>
+      </c>
+      <c r="D5" t="n">
+        <v>83.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600588-用友网络.xlsx
+++ b/数据整理/stocks/A股/上证主板/600588-用友网络.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12208,7 +12209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12219,17 +12220,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12239,14 +12260,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>75</v>
-      </c>
-      <c r="D2" t="n">
-        <v>38.61</v>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>138.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.7578</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -12255,14 +12298,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>55</v>
-      </c>
-      <c r="D3" t="n">
-        <v>35.87</v>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6224</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -12271,14 +12336,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>78</v>
-      </c>
-      <c r="D4" t="n">
-        <v>54</v>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8295</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -12287,13 +12374,3113 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7944</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2868</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1298</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8521</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7355</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7219</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7211</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6404</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6265</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5989</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4649</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4471</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3944</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3490</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2992</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2839</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2745</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2694</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2474</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2129</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2020</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>77.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深人工智能50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000589</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>光大保德信银发商机主题混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>78.26</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>29.07</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>161816</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>银华中证等权重90指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009595</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>山西证券裕盛一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>82</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>75</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>78</v>
+      </c>
+      <c r="D5" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>96</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>83.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600588-用友网络.xlsx
+++ b/数据整理/stocks/A股/上证主板/600588-用友网络.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15379,7 +15380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15390,17 +15391,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15410,14 +15431,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>82</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.54</v>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>112.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.7393</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -15426,14 +15469,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>75</v>
-      </c>
-      <c r="D3" t="n">
-        <v>38.61</v>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2907</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -15442,14 +15507,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>55</v>
-      </c>
-      <c r="D4" t="n">
-        <v>35.87</v>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4505</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -15458,14 +15545,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>78</v>
-      </c>
-      <c r="D5" t="n">
-        <v>54</v>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6442</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -15474,13 +15583,1725 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5514</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5044</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4737</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3202</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2824</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2808</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2642</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2072</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2013</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>60.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000589</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>光大保德信银发商机主题混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>68.34</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深人工智能50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>82</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>75</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>78</v>
+      </c>
+      <c r="D6" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>96</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>83.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600588-用友网络.xlsx
+++ b/数据整理/stocks/A股/上证主板/600588-用友网络.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17184,7 +17185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17195,17 +17196,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -17215,14 +17236,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>46</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.36</v>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4521</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -17231,14 +17274,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>82</v>
-      </c>
-      <c r="D3" t="n">
-        <v>32.54</v>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1710</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -17247,14 +17312,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>75</v>
-      </c>
-      <c r="D4" t="n">
-        <v>38.61</v>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3034</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -17263,14 +17350,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>55</v>
-      </c>
-      <c r="D5" t="n">
-        <v>35.87</v>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5930</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -17279,14 +17388,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>78</v>
-      </c>
-      <c r="D6" t="n">
-        <v>54</v>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5084</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -17295,13 +17426,1665 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4555</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2704</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2497</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2012</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1858</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>65.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000589</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>光大保德信银发商机主题混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014130</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>67.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深人工智能50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013083</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>82</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>75</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>55</v>
+      </c>
+      <c r="D6" t="n">
+        <v>35.87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>78</v>
+      </c>
+      <c r="D7" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>96</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>83.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600588-用友网络.xlsx
+++ b/数据整理/stocks/A股/上证主板/600588-用友网络.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D2" t="n">
-        <v>14.68</v>
+        <v>16.45</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>16.36</v>
+        <v>14.68</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="D4" t="n">
-        <v>32.54</v>
+        <v>16.36</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D5" t="n">
-        <v>38.61</v>
+        <v>32.54</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D6" t="n">
-        <v>35.87</v>
+        <v>38.61</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D7" t="n">
-        <v>54</v>
+        <v>35.87</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>78</v>
+      </c>
+      <c r="D8" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>96</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>83.36</v>
       </c>
     </row>
@@ -600,6 +617,2380 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家行业优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0374</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9182</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7893</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5313</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4899</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4664</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3435</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3418</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2942</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2679</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2344</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2134</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2069</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012999</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商稳旺混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>73.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>新华中证云计算50ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012321</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159738</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159739</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014130</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000589</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>光大保德信银发商机主题混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012998</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商稳旺混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012322</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>517390</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>40.73</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深AI50ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013083</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2365,7 +4756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4169,7 +6560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7339,7 +9730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10241,7 +12632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12385,7 +14776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15391,7 +17782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
